--- a/InputData/hydgn/HPtFM/Hydrogen Pathway to Fuel Mappings.xlsx
+++ b/InputData/hydgn/HPtFM/Hydrogen Pathway to Fuel Mappings.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28025"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26731"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Modeling\EPS\US\eps-us\InputData\hydgn\HPtFM\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mmahajan\Documents\eps-us\InputData\hydgn\HPtFM\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B5844221-6783-4B6E-9B09-1D5996089E0E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7FAA91C4-5F03-4D47-B867-484F2D39F059}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="31395" yWindow="1440" windowWidth="25290" windowHeight="13845" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1320" yWindow="2955" windowWidth="21600" windowHeight="12735" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="About" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="31">
   <si>
     <t>HPtFM Hydrogen Pathway to Fuel Mappings</t>
   </si>
@@ -75,6 +75,9 @@
     <t>biomass gasification</t>
   </si>
   <si>
+    <t>thermochemical water splitting</t>
+  </si>
+  <si>
     <t>This is part of the definition of each pathway</t>
   </si>
   <si>
@@ -111,6 +114,15 @@
     <t>hydrogen</t>
   </si>
   <si>
+    <t>Thermochemical water splitting does not use</t>
+  </si>
+  <si>
+    <t>any tracked fuel type in the EPS.  It derives heat</t>
+  </si>
+  <si>
+    <t>from the sun or from nuclear power plants.</t>
+  </si>
+  <si>
     <t>Fuel Used by Pathway (dimensionless)</t>
   </si>
   <si>
@@ -118,9 +130,6 @@
   </si>
   <si>
     <t>natural gas reforming with CCS</t>
-  </si>
-  <si>
-    <t>hydrocarbon partial oxidation</t>
   </si>
 </sst>
 </file>
@@ -456,20 +465,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B12"/>
+  <dimension ref="A1:B16"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F17" sqref="F17"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>1</v>
       </c>
@@ -477,39 +484,54 @@
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.35">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>13</v>
+        <v>14</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>27</v>
       </c>
     </row>
   </sheetData>
@@ -525,54 +547,54 @@
   </sheetPr>
   <dimension ref="A1:K8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I6" sqref="I6"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B7" sqref="B7:K8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="32.7265625" customWidth="1"/>
-    <col min="2" max="8" width="13.1796875" customWidth="1"/>
-    <col min="9" max="9" width="15.1796875" customWidth="1"/>
-    <col min="10" max="11" width="13.1796875" customWidth="1"/>
+    <col min="1" max="1" width="32.7109375" customWidth="1"/>
+    <col min="2" max="8" width="13.140625" customWidth="1"/>
+    <col min="9" max="9" width="15.140625" customWidth="1"/>
+    <col min="10" max="11" width="13.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" s="2" customFormat="1" ht="29" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:11" s="2" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A1" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="F1" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="G1" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="H1" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="I1" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="J1" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="K1" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="B1" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="C1" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="D1" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="E1" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="F1" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="G1" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="H1" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="I1" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="J1" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="K1" s="3" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.35">
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>8</v>
       </c>
@@ -607,7 +629,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>9</v>
       </c>
@@ -642,7 +664,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>10</v>
       </c>
@@ -677,7 +699,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>11</v>
       </c>
@@ -712,9 +734,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>27</v>
+        <v>12</v>
       </c>
       <c r="B6">
         <v>0</v>
@@ -738,7 +760,7 @@
         <v>0</v>
       </c>
       <c r="I6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J6">
         <v>0</v>
@@ -747,9 +769,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="B7">
         <f>B2</f>
@@ -792,9 +814,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="B8">
         <f>B3</f>
